--- a/src/Tests/Templates/Supagreements.xlsx
+++ b/src/Tests/Templates/Supagreements.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Приложения" sheetId="1" r:id="rId1"/>
-    <sheet name="Ошибки" sheetId="2" r:id="rId2"/>
-    <sheet name="Доп.Соглашения" sheetId="5" r:id="rId3"/>
+    <sheet name="Доп.Соглашения" sheetId="5" r:id="rId1"/>
+    <sheet name="Приложения" sheetId="1" r:id="rId2"/>
+    <sheet name="Ошибки" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приложения!$A$1:$S$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Приложения!$A$1:$S$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
   <si>
     <t>Содержание</t>
   </si>
@@ -192,13 +192,56 @@
   </si>
   <si>
     <t>123. Тест</t>
+  </si>
+  <si>
+    <t>б/н</t>
+  </si>
+  <si>
+    <t>Приложение</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Российский рубль</t>
+  </si>
+  <si>
+    <t>Оплата - 100% в течение 10 рабочих дней после оказания услуг.</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Обслуживание мероприятия,посвященного открытию Chanel Coco Game Center в ЦУМе 03.09.2018.
+Кейтеринг, обслуживание банкета официантами, барменами, грузчиками, менеджером.
+Оплата - в течение 10 рабочих дней после предоставления подписанного акта</t>
+  </si>
+  <si>
+    <t>Обслуживание мероприятия, посвященного открытию Chanel Coco Game Center в ЦУМе 03.09.2018.
+Музыальное сопровождение мероприятия, транспортные услуги и монтажно/демонтажные работы и доставка мебели, репортажная фотосъемка, стреча гостей, навигация гостей, аренда мебели
+Услувия оплаты:
+50% - в течение 10 рабочих дней после подписания Приложения и предоставления счета на оплату
+Оставшаяся оплата - на смму разницы в течение 10 рабочих дней после предоставления подписанного акта</t>
+  </si>
+  <si>
+    <t>услуги по организации мероприятия COCOGAME в ЦУМе</t>
+  </si>
+  <si>
+    <t>Показ фильма "Колетт" в кинотеатре "Москва" 26.11.2018 с 19 - 23 по местному времени.
+Оплата - в течение 10 рабочих дней после оказания услуг и предоставления акта,сч/ф и счета.</t>
+  </si>
+  <si>
+    <t>Ивановский Геннадий Александрович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -222,6 +265,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="2"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="8">
@@ -267,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -333,12 +389,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -409,9 +481,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -430,10 +499,6 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -442,14 +507,7 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -477,18 +535,43 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -837,10 +920,660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="5" customWidth="1"/>
+    <col min="20" max="22" width="13.42578125" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="25">
+        <v>40452</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="25">
+        <v>40410</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="25">
+        <v>40452</v>
+      </c>
+      <c r="L2" s="27">
+        <v>40482</v>
+      </c>
+      <c r="M2" s="28">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="38">
+        <v>40452</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40">
+        <v>43339</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="40">
+        <v>43326</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="40">
+        <v>43326</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45">
+        <v>1331113.1599999999</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5</v>
+      </c>
+      <c r="T3" s="43"/>
+      <c r="U3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="46"/>
+      <c r="W3"/>
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="40">
+        <v>43339</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="40">
+        <v>43326</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="40">
+        <v>43326</v>
+      </c>
+      <c r="L4" s="48"/>
+      <c r="M4" s="45">
+        <v>655354.30000000005</v>
+      </c>
+      <c r="N4" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="2">
+        <v>5</v>
+      </c>
+      <c r="T4" s="43"/>
+      <c r="U4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="46"/>
+      <c r="W4"/>
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="39">
+        <v>1</v>
+      </c>
+      <c r="B5" s="40">
+        <v>43339</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="40">
+        <v>43326</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="40">
+        <v>43326</v>
+      </c>
+      <c r="L5" s="48"/>
+      <c r="M5" s="45">
+        <v>1251746.3600000001</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5</v>
+      </c>
+      <c r="T5" s="43"/>
+      <c r="U5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" s="46"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="39">
+        <v>3</v>
+      </c>
+      <c r="B6" s="40">
+        <v>43339</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="40">
+        <v>43326</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="40">
+        <v>43326</v>
+      </c>
+      <c r="L6" s="48"/>
+      <c r="M6" s="45">
+        <v>217710</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="2">
+        <v>5</v>
+      </c>
+      <c r="T6" s="43"/>
+      <c r="U6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" s="46"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="39">
+        <v>4</v>
+      </c>
+      <c r="B7" s="40">
+        <v>43427</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="40">
+        <v>43326</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="40">
+        <v>43326</v>
+      </c>
+      <c r="L7" s="48"/>
+      <c r="M7" s="45">
+        <v>2523132.91</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="S7" s="2">
+        <v>5</v>
+      </c>
+      <c r="T7" s="43"/>
+      <c r="U7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="46"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V8" s="49"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V9" s="49"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V10" s="49"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V11" s="49"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V12" s="49"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V13" s="49"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V14" s="49"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V15" s="49"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V16" s="49"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+    </row>
+    <row r="17" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V17" s="49"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+    </row>
+    <row r="18" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V18" s="49"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+    </row>
+    <row r="19" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V19" s="49"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+    </row>
+    <row r="20" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V20" s="49"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+    </row>
+    <row r="21" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V21" s="49"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+    </row>
+    <row r="22" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V22" s="5"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+    </row>
+    <row r="23" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V31" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" display="\\comp.npo\data\Public\buffer\Popova_EI\Миграция\Договоры\1.DOC"/>
+    <hyperlink ref="J3:J31" r:id="rId2" display="\\comp.npo\data\Public\buffer\Popova_EI\Миграция\Договоры\1.DOC"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -868,10 +1601,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -880,7 +1613,7 @@
       <c r="D1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="31" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="22" t="s">
@@ -895,7 +1628,7 @@
       <c r="I1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="32" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="20" t="s">
@@ -928,17 +1661,17 @@
       <c r="T1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="37"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>40410</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="3" t="s">
         <v>44</v>
       </c>
@@ -954,11 +1687,11 @@
       <c r="J2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31">
+      <c r="K2" s="33"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29">
         <v>4</v>
       </c>
       <c r="P2" s="2"/>
@@ -976,11 +1709,11 @@
       <c r="V2"/>
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="19"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -997,11 +1730,11 @@
       <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1018,11 +1751,11 @@
       <c r="S4" s="18"/>
     </row>
     <row r="5" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="19"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="38"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1039,11 +1772,11 @@
       <c r="S5" s="18"/>
     </row>
     <row r="6" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="38"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1071,7 +1804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1167,478 +1900,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="5" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="5" customWidth="1"/>
-    <col min="20" max="22" width="13.42578125" style="10" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="26">
-        <v>40452</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="26">
-        <v>40410</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="26">
-        <v>40452</v>
-      </c>
-      <c r="L2" s="28">
-        <v>40482</v>
-      </c>
-      <c r="M2" s="30">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="2">
-        <v>5</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="43">
-        <v>40452</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3"/>
-      <c r="X3"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4"/>
-      <c r="X4"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="L7" s="9"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-    </row>
-    <row r="17" spans="20:27" x14ac:dyDescent="0.2">
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-    </row>
-    <row r="18" spans="20:27" x14ac:dyDescent="0.2">
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-    </row>
-    <row r="19" spans="20:27" x14ac:dyDescent="0.2">
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-    </row>
-    <row r="20" spans="20:27" x14ac:dyDescent="0.2">
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-    </row>
-    <row r="21" spans="20:27" x14ac:dyDescent="0.2">
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-    </row>
-    <row r="22" spans="20:27" x14ac:dyDescent="0.2">
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="\\comp.npo\data\Public\buffer\Popova_EI\Миграция\Договоры\1.DOC"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/src/Tests/Templates/Supagreements.xlsx
+++ b/src/Tests/Templates/Supagreements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Доп.Соглашения" sheetId="5" r:id="rId1"/>
@@ -410,7 +410,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -564,6 +564,17 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -922,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -1572,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1601,10 +1612,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="50" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="21" t="s">
@@ -1643,7 +1654,7 @@
       <c r="N1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="50" t="s">
         <v>27</v>
       </c>
       <c r="P1" s="20" t="s">
@@ -1661,10 +1672,10 @@
       <c r="T1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="19" t="s">
         <v>51</v>
       </c>
@@ -1691,7 +1702,7 @@
       <c r="L2" s="35"/>
       <c r="M2" s="36"/>
       <c r="N2" s="29"/>
-      <c r="O2" s="29">
+      <c r="O2" s="51">
         <v>4</v>
       </c>
       <c r="P2" s="2"/>
@@ -1709,8 +1720,8 @@
       <c r="V2"/>
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="19"/>
       <c r="D3" s="25"/>
       <c r="E3" s="34"/>
@@ -1723,15 +1734,15 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="51"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="19"/>
       <c r="D4" s="25"/>
       <c r="E4" s="34"/>
@@ -1744,15 +1755,15 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
     </row>
     <row r="5" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="19"/>
       <c r="D5" s="25"/>
       <c r="E5" s="34"/>
@@ -1765,15 +1776,15 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="51"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
     </row>
     <row r="6" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="19"/>
       <c r="D6" s="25"/>
       <c r="E6" s="34"/>
@@ -1786,7 +1797,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="51"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
